--- a/DBtest.xlsx
+++ b/DBtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOLA\Documents\GitHub\Delfin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CB0248-7E1E-451B-A5F4-EEB4B5458B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164008A5-499C-4283-90ED-A4244218585F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28695" yWindow="1635" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,6 +400,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -688,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +720,7 @@
       <c r="B1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -792,7 +793,7 @@
       <c r="B2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -836,7 +837,7 @@
       <c r="B3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -898,7 +899,7 @@
       <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="5"/>

--- a/DBtest.xlsx
+++ b/DBtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOLA\Documents\GitHub\Delfin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164008A5-499C-4283-90ED-A4244218585F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD336F6-C43B-4C83-827C-A80EEF4DB71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28695" yWindow="1635" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Allocation</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Marie Gelatine</t>
+  </si>
+  <si>
+    <t>DROP-DOWN MENU</t>
   </si>
 </sst>
 </file>
@@ -687,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,6 +942,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
